--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H2">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I2">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J2">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>85.5318528059795</v>
+        <v>238.7643197152762</v>
       </c>
       <c r="R2">
-        <v>85.5318528059795</v>
+        <v>2148.878877437486</v>
       </c>
       <c r="S2">
-        <v>0.09700499676692537</v>
+        <v>0.1264970295590645</v>
       </c>
       <c r="T2">
-        <v>0.09700499676692537</v>
+        <v>0.1264970295590645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H3">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I3">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J3">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>50.73612036396742</v>
+        <v>58.88494434921534</v>
       </c>
       <c r="R3">
-        <v>50.73612036396742</v>
+        <v>529.9644991429381</v>
       </c>
       <c r="S3">
-        <v>0.0575418049581749</v>
+        <v>0.03119716779629861</v>
       </c>
       <c r="T3">
-        <v>0.0575418049581749</v>
+        <v>0.03119716779629862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H4">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I4">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J4">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>252.1132557486323</v>
+        <v>674.4931138852203</v>
       </c>
       <c r="R4">
-        <v>252.1132557486323</v>
+        <v>6070.438024966982</v>
       </c>
       <c r="S4">
-        <v>0.2859314367276909</v>
+        <v>0.3573455844083779</v>
       </c>
       <c r="T4">
-        <v>0.2859314367276909</v>
+        <v>0.3573455844083779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H5">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I5">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J5">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>149.5495311907949</v>
+        <v>166.3459997809673</v>
       </c>
       <c r="R5">
-        <v>149.5495311907949</v>
+        <v>1497.113998028706</v>
       </c>
       <c r="S5">
-        <v>0.1696099326009699</v>
+        <v>0.08812989678029716</v>
       </c>
       <c r="T5">
-        <v>0.1696099326009699</v>
+        <v>0.08812989678029716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H6">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I6">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J6">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>95.67364088565198</v>
+        <v>279.4461183794359</v>
       </c>
       <c r="R6">
-        <v>95.67364088565198</v>
+        <v>2515.015065414923</v>
       </c>
       <c r="S6">
-        <v>0.1085071925875997</v>
+        <v>0.1480501941787732</v>
       </c>
       <c r="T6">
-        <v>0.1085071925875997</v>
+        <v>0.1480501941787732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H7">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I7">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J7">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q7">
-        <v>56.75206604777402</v>
+        <v>68.91804080693433</v>
       </c>
       <c r="R7">
-        <v>56.75206604777402</v>
+        <v>620.262367262409</v>
       </c>
       <c r="S7">
-        <v>0.06436472264863394</v>
+        <v>0.03651268939807931</v>
       </c>
       <c r="T7">
-        <v>0.06436472264863394</v>
+        <v>0.03651268939807931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.4972962842055</v>
+        <v>49.51716233333334</v>
       </c>
       <c r="H8">
-        <v>49.4972962842055</v>
+        <v>148.551487</v>
       </c>
       <c r="I8">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="J8">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N8">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q8">
-        <v>120.1178267376055</v>
+        <v>321.3935024425713</v>
       </c>
       <c r="R8">
-        <v>120.1178267376055</v>
+        <v>2892.541521983141</v>
       </c>
       <c r="S8">
-        <v>0.1362302933009412</v>
+        <v>0.1702738643154481</v>
       </c>
       <c r="T8">
-        <v>0.1362302933009412</v>
+        <v>0.1702738643154481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.4972962842055</v>
+        <v>49.51716233333334</v>
       </c>
       <c r="H9">
-        <v>49.4972962842055</v>
+        <v>148.551487</v>
       </c>
       <c r="I9">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="J9">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N9">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q9">
-        <v>71.25196421316485</v>
+        <v>79.26326064170034</v>
       </c>
       <c r="R9">
-        <v>71.25196421316485</v>
+        <v>713.369345775303</v>
       </c>
       <c r="S9">
-        <v>0.080809620409064</v>
+        <v>0.04199357356366132</v>
       </c>
       <c r="T9">
-        <v>0.080809620409064</v>
+        <v>0.04199357356366132</v>
       </c>
     </row>
   </sheetData>
